--- a/App_todo_list.xlsx
+++ b/App_todo_list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lam.nguyenquynh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huylv\Downloads\New-folder\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -488,7 +488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
